--- a/data/trans_orig/P33B_R4-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R4-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>12392</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6815</v>
+        <v>6791</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20821</v>
+        <v>21245</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03886490909725483</v>
+        <v>0.03886490909725484</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02137310838783612</v>
+        <v>0.02129869675119112</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06530014762725718</v>
+        <v>0.06663162843126684</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -762,19 +762,19 @@
         <v>24122</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17995</v>
+        <v>17243</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32456</v>
+        <v>31899</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07632020287651851</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05693383147214381</v>
+        <v>0.05455736811716742</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1026905241343838</v>
+        <v>0.1009253588258581</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -783,19 +783,19 @@
         <v>36514</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27915</v>
+        <v>28262</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47885</v>
+        <v>47562</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05751041827571455</v>
+        <v>0.05751041827571456</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04396740867778931</v>
+        <v>0.04451302824973733</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07542139122883552</v>
+        <v>0.07491172596186768</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>306453</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>298024</v>
+        <v>297600</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>312030</v>
+        <v>312054</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9611350909027453</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9346998523727427</v>
+        <v>0.9333683715687329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9786268916121639</v>
+        <v>0.9787013032488089</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>494</v>
@@ -833,19 +833,19 @@
         <v>291939</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283605</v>
+        <v>284162</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>298066</v>
+        <v>298818</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9236797971234814</v>
+        <v>0.9236797971234816</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8973094758656162</v>
+        <v>0.8990746411741406</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9430661685278561</v>
+        <v>0.9454426318828325</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>812</v>
@@ -854,19 +854,19 @@
         <v>598392</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>587021</v>
+        <v>587344</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>606991</v>
+        <v>606644</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9424895817242855</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9245786087711645</v>
+        <v>0.9250882740381322</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9560325913222107</v>
+        <v>0.9554869717502629</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>37928</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25089</v>
+        <v>25834</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53580</v>
+        <v>51908</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07147533389494141</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04727948062645553</v>
+        <v>0.04868425827246462</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1009715000393873</v>
+        <v>0.09782112907122509</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>103</v>
@@ -979,19 +979,19 @@
         <v>73067</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60370</v>
+        <v>59570</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88992</v>
+        <v>87635</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1338818329592154</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.110616928886103</v>
+        <v>0.1091523902620558</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1630624170637527</v>
+        <v>0.1605765973466017</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>134</v>
@@ -1000,19 +1000,19 @@
         <v>110995</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>93419</v>
+        <v>93714</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>132612</v>
+        <v>132226</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1031165111029265</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08678863856513645</v>
+        <v>0.08706195292292961</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1231994647435826</v>
+        <v>0.1228407510812135</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>492719</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>477067</v>
+        <v>478739</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>505558</v>
+        <v>504813</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9285246661050585</v>
+        <v>0.9285246661050586</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8990284999606131</v>
+        <v>0.9021788709287749</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9527205193735445</v>
+        <v>0.9513157417275354</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>613</v>
@@ -1050,19 +1050,19 @@
         <v>472687</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>456762</v>
+        <v>458119</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>485384</v>
+        <v>486184</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8661181670407845</v>
+        <v>0.8661181670407847</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8369375829362475</v>
+        <v>0.8394234026533983</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8893830711138973</v>
+        <v>0.8908476097379442</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>964</v>
@@ -1071,19 +1071,19 @@
         <v>965406</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>943789</v>
+        <v>944175</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>982982</v>
+        <v>982687</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8968834888970735</v>
+        <v>0.8968834888970736</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8768005352564174</v>
+        <v>0.8771592489187865</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9132113614348636</v>
+        <v>0.9129380470770703</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>53211</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41377</v>
+        <v>41363</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65968</v>
+        <v>67972</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1694479711730735</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1317621184160292</v>
+        <v>0.1317195062980695</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2100700699045615</v>
+        <v>0.2164528692195309</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>117</v>
@@ -1196,19 +1196,19 @@
         <v>71995</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>60032</v>
+        <v>60977</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>84935</v>
+        <v>84988</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2020171553225313</v>
+        <v>0.2020171553225312</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1684502163994276</v>
+        <v>0.1711018755714814</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2383266124302555</v>
+        <v>0.2384740958237927</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -1217,19 +1217,19 @@
         <v>125207</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>110083</v>
+        <v>108565</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144119</v>
+        <v>143057</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1867613697017982</v>
+        <v>0.1867613697017983</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1642033683661731</v>
+        <v>0.161938053305757</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2149714559768482</v>
+        <v>0.2133876836249141</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>260816</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>248059</v>
+        <v>246055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>272650</v>
+        <v>272664</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8305520288269265</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7899299300954384</v>
+        <v>0.7835471307804696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8682378815839707</v>
+        <v>0.8682804937019305</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>419</v>
@@ -1267,19 +1267,19 @@
         <v>284386</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>271446</v>
+        <v>271393</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>296349</v>
+        <v>295404</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7979828446774687</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7616733875697443</v>
+        <v>0.7615259041762075</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8315497836005723</v>
+        <v>0.8288981244285188</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>715</v>
@@ -1288,19 +1288,19 @@
         <v>545202</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>526290</v>
+        <v>527352</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>560326</v>
+        <v>561844</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8132386302982016</v>
+        <v>0.8132386302982015</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7850285440231518</v>
+        <v>0.7866123163750863</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8357966316338268</v>
+        <v>0.8380619466942431</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>64535</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46710</v>
+        <v>47774</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>86729</v>
+        <v>86392</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1729493201237401</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1251787282365759</v>
+        <v>0.1280318975983533</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2324280586141854</v>
+        <v>0.2315247060088988</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>160</v>
@@ -1413,19 +1413,19 @@
         <v>108924</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>94234</v>
+        <v>91939</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>127550</v>
+        <v>126835</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2583925343571512</v>
+        <v>0.2583925343571513</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2235432616784018</v>
+        <v>0.2180993701251101</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3025768393789321</v>
+        <v>0.3008804468664334</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>211</v>
@@ -1434,19 +1434,19 @@
         <v>173460</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>146510</v>
+        <v>148939</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>201846</v>
+        <v>202365</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2182729038231541</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1843608044544596</v>
+        <v>0.1874176467490247</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2539931276344963</v>
+        <v>0.2546463870853032</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>308610</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>286416</v>
+        <v>286753</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>326435</v>
+        <v>325371</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8270506798762599</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7675719413858146</v>
+        <v>0.7684752939911011</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8748212717634243</v>
+        <v>0.8719681024016467</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>438</v>
@@ -1484,19 +1484,19 @@
         <v>312622</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>293996</v>
+        <v>294711</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>327312</v>
+        <v>329607</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7416074656428489</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6974231606210679</v>
+        <v>0.6991195531335667</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7764567383215983</v>
+        <v>0.7819006298748901</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>679</v>
@@ -1505,19 +1505,19 @@
         <v>621231</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>592845</v>
+        <v>592326</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>648181</v>
+        <v>645752</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7817270961768459</v>
+        <v>0.7817270961768458</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.746006872365504</v>
+        <v>0.7453536129146968</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8156391955455403</v>
+        <v>0.8125823532509753</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>15288</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10133</v>
+        <v>9966</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22034</v>
+        <v>22157</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07433246820296678</v>
+        <v>0.07433246820296677</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04926713903546581</v>
+        <v>0.04845623829957089</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1071364750918521</v>
+        <v>0.1077346454873063</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>62</v>
@@ -1630,19 +1630,19 @@
         <v>26550</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20460</v>
+        <v>21112</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33494</v>
+        <v>33927</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1170496336235711</v>
+        <v>0.117049633623571</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09020398041996382</v>
+        <v>0.09307864372457034</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1476661042445315</v>
+        <v>0.1495741788112502</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>87</v>
@@ -1651,19 +1651,19 @@
         <v>41837</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33705</v>
+        <v>34070</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51075</v>
+        <v>50935</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09673597640193578</v>
+        <v>0.09673597640193579</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07793330670621292</v>
+        <v>0.07877687644835253</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1180949092340408</v>
+        <v>0.1177715614459493</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>190377</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>183631</v>
+        <v>183508</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195532</v>
+        <v>195699</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.925667531797033</v>
+        <v>0.9256675317970333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8928635249081481</v>
+        <v>0.8922653545126933</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9507328609645344</v>
+        <v>0.9515437617004285</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>429</v>
@@ -1701,19 +1701,19 @@
         <v>200273</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>193329</v>
+        <v>192896</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206363</v>
+        <v>205711</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8829503663764289</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8523338957554687</v>
+        <v>0.8504258211887497</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9097960195800363</v>
+        <v>0.9069213562754297</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>683</v>
@@ -1722,19 +1722,19 @@
         <v>390651</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>381413</v>
+        <v>381553</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>398783</v>
+        <v>398418</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9032640235980641</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8819050907659594</v>
+        <v>0.8822284385540509</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9220666932937871</v>
+        <v>0.9212231235516475</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>38235</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29199</v>
+        <v>29107</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49695</v>
+        <v>49328</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1412425402800592</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1078633572642607</v>
+        <v>0.1075215229114388</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.18357402318978</v>
+        <v>0.1822177583773163</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>126</v>
@@ -1847,19 +1847,19 @@
         <v>64118</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54440</v>
+        <v>54321</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>75893</v>
+        <v>74753</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2431030521257159</v>
+        <v>0.2431030521257158</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2064060768781437</v>
+        <v>0.2059565153494778</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2877470469447677</v>
+        <v>0.2834236710440597</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>184</v>
@@ -1868,19 +1868,19 @@
         <v>102354</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>88598</v>
+        <v>88991</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116693</v>
+        <v>116805</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1915098697416972</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1657727051970397</v>
+        <v>0.1665069472226511</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2183402404665768</v>
+        <v>0.2185486910211406</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>232472</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>221012</v>
+        <v>221379</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>241508</v>
+        <v>241600</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8587574597199408</v>
+        <v>0.8587574597199409</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8164259768102204</v>
+        <v>0.8177822416226836</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8921366427357397</v>
+        <v>0.8924784770885613</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>334</v>
@@ -1918,19 +1918,19 @@
         <v>199632</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>187857</v>
+        <v>188997</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>209310</v>
+        <v>209429</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7568969478742842</v>
+        <v>0.756896947874284</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.712252953055232</v>
+        <v>0.7165763289559403</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7935939231218562</v>
+        <v>0.7940434846505222</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>647</v>
@@ -1939,19 +1939,19 @@
         <v>432103</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>417764</v>
+        <v>417652</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>445859</v>
+        <v>445466</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8084901302583029</v>
+        <v>0.8084901302583027</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7816597595334233</v>
+        <v>0.7814513089788596</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8342272948029602</v>
+        <v>0.833493052777349</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>105241</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>84025</v>
+        <v>82714</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>130004</v>
+        <v>128100</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1464524181587929</v>
+        <v>0.146452418158793</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1169284768923847</v>
+        <v>0.1151038601342382</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1809117686317327</v>
+        <v>0.1782623652196072</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>258</v>
@@ -2064,19 +2064,19 @@
         <v>216180</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>189913</v>
+        <v>192683</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>238628</v>
+        <v>241414</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.280005764437246</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.245983353401557</v>
+        <v>0.2495712420719037</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3090805536283569</v>
+        <v>0.3126894809126198</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>343</v>
@@ -2085,19 +2085,19 @@
         <v>321422</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>291794</v>
+        <v>288070</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>355228</v>
+        <v>358570</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2156235414195399</v>
+        <v>0.21562354141954</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1957477692015205</v>
+        <v>0.1932497018451378</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2383021685813677</v>
+        <v>0.2405443762285965</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>613364</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>588601</v>
+        <v>590505</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>634580</v>
+        <v>635891</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.853547581841207</v>
+        <v>0.8535475818412073</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.819088231368268</v>
+        <v>0.8217376347803929</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8830715231076153</v>
+        <v>0.8848961398657619</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>702</v>
@@ -2135,19 +2135,19 @@
         <v>555877</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>533429</v>
+        <v>530643</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>582144</v>
+        <v>579374</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7199942355627538</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6909194463716432</v>
+        <v>0.6873105190873802</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7540166465984428</v>
+        <v>0.7504287579280962</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1215</v>
@@ -2156,19 +2156,19 @@
         <v>1169240</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1135434</v>
+        <v>1132092</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1198868</v>
+        <v>1202592</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.78437645858046</v>
+        <v>0.7843764585804601</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7616978314186322</v>
+        <v>0.7594556237714036</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8042522307984795</v>
+        <v>0.8067502981548622</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>161019</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>137353</v>
+        <v>139927</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>184148</v>
+        <v>182853</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2017598572103168</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1721054354943264</v>
+        <v>0.175331431751107</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2307414802635631</v>
+        <v>0.229118866199632</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>378</v>
@@ -2281,19 +2281,19 @@
         <v>255731</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>234717</v>
+        <v>233768</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>280764</v>
+        <v>279290</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3078842786191186</v>
+        <v>0.3078842786191187</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2825847589311341</v>
+        <v>0.2814412612293454</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3380221264298077</v>
+        <v>0.3362476716856075</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>572</v>
@@ -2302,19 +2302,19 @@
         <v>416750</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>388435</v>
+        <v>384121</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>451584</v>
+        <v>451160</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2558821136537082</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2384968669596772</v>
+        <v>0.235847934068052</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2772698031266378</v>
+        <v>0.2770092711282074</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>637053</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>613924</v>
+        <v>615219</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>660719</v>
+        <v>658145</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7982401427896832</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7692585197364369</v>
+        <v>0.7708811338003676</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8278945645056738</v>
+        <v>0.8246685682488929</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>683</v>
@@ -2352,19 +2352,19 @@
         <v>574878</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>549845</v>
+        <v>551319</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>595892</v>
+        <v>596841</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6921157213808813</v>
+        <v>0.6921157213808814</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6619778735701923</v>
+        <v>0.6637523283143931</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.717415241068866</v>
+        <v>0.7185587387706545</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1251</v>
@@ -2373,19 +2373,19 @@
         <v>1211931</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1177097</v>
+        <v>1177521</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1240246</v>
+        <v>1244560</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7441178863462917</v>
+        <v>0.7441178863462918</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7227301968733622</v>
+        <v>0.7229907288717926</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7615031330403227</v>
+        <v>0.764152065931948</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>487850</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>443127</v>
+        <v>445035</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>535932</v>
+        <v>530216</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1382122881106498</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1255420358413234</v>
+        <v>0.1260824944610589</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1518345094474919</v>
+        <v>0.150215052640227</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1248</v>
@@ -2498,19 +2498,19 @@
         <v>840688</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>795830</v>
+        <v>795314</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>888358</v>
+        <v>886845</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2252054357591612</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2131889006706216</v>
+        <v>0.2130505169081358</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2379755458396124</v>
+        <v>0.2375701173601832</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1767</v>
@@ -2519,19 +2519,19 @@
         <v>1328538</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1268249</v>
+        <v>1263546</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1397855</v>
+        <v>1396808</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1829262407612788</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1746251215628594</v>
+        <v>0.1739775242364132</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1924705459626205</v>
+        <v>0.1923264216905522</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3041864</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2993782</v>
+        <v>2999498</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3086587</v>
+        <v>3084679</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8617877118893501</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8481654905525076</v>
+        <v>0.8497849473597729</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8744579641586765</v>
+        <v>0.8739175055389408</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4112</v>
@@ -2569,19 +2569,19 @@
         <v>2892294</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2844624</v>
+        <v>2846137</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2937152</v>
+        <v>2937668</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.7747945642408387</v>
+        <v>0.7747945642408386</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7620244541603872</v>
+        <v>0.7624298826398167</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.786811099329378</v>
+        <v>0.7869494830918643</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6966</v>
@@ -2590,19 +2590,19 @@
         <v>5934158</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5864841</v>
+        <v>5865888</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5994447</v>
+        <v>5999150</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.8170737592387212</v>
+        <v>0.8170737592387213</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8075294540373796</v>
+        <v>0.8076735783094479</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8253748784371404</v>
+        <v>0.826022475763587</v>
       </c>
     </row>
     <row r="30">
